--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,16 +439,6 @@
           <t>Full Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,16 +446,6 @@
           <t>Ritika Gadapa</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ritika</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Gadapa</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -473,16 +453,6 @@
           <t>Varad Sabne</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Varad</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sabne</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -490,16 +460,6 @@
           <t>Ashish Deshmukh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ashish</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Deshmukh</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -507,31 +467,11 @@
           <t>Janvi Sawalkar</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Janvi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sawalkar</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>Yashraj Dhole</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yashraj</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Dhole</t>
         </is>
       </c>
     </row>
